--- a/grilla.xlsx
+++ b/grilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\emergit\app_grilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4C298-BA16-444A-80C7-513CED55071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD067F-431A-43F5-9D26-243816640041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Viernes" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consolidado!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consolidado!$A$1:$H$850</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lunes!$C$1:$F$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3046,6 +3046,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3059,7 +3060,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3277,7 +3277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F62586-9F88-4AB3-AB60-A36B79FDCC5E}">
   <dimension ref="A1:H850"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
@@ -3303,7 +3305,7 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="255" t="s">
+      <c r="H1" s="250" t="s">
         <v>617</v>
       </c>
     </row>
@@ -32838,7 +32840,7 @@
       <c r="G109" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="250" t="s">
+      <c r="H109" s="251" t="s">
         <v>375</v>
       </c>
       <c r="I109" s="66"/>
@@ -32876,7 +32878,7 @@
       <c r="G110" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="H110" s="251"/>
+      <c r="H110" s="252"/>
       <c r="I110" s="66"/>
       <c r="J110" s="66"/>
       <c r="K110" s="66"/>
@@ -32912,7 +32914,7 @@
       <c r="G111" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="H111" s="251"/>
+      <c r="H111" s="252"/>
       <c r="I111" s="66"/>
       <c r="J111" s="66"/>
       <c r="K111" s="66"/>
@@ -32948,7 +32950,7 @@
       <c r="G112" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="H112" s="251"/>
+      <c r="H112" s="252"/>
       <c r="I112" s="66"/>
       <c r="J112" s="66"/>
       <c r="K112" s="66"/>
@@ -32984,7 +32986,7 @@
       <c r="G113" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="252" t="s">
+      <c r="H113" s="253" t="s">
         <v>377</v>
       </c>
       <c r="I113" s="66"/>
@@ -33022,7 +33024,7 @@
       <c r="G114" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="H114" s="251"/>
+      <c r="H114" s="252"/>
       <c r="I114" s="66"/>
       <c r="J114" s="66"/>
       <c r="K114" s="66"/>
@@ -33058,7 +33060,7 @@
       <c r="G115" s="98" t="s">
         <v>343</v>
       </c>
-      <c r="H115" s="251"/>
+      <c r="H115" s="252"/>
       <c r="I115" s="66"/>
       <c r="J115" s="66"/>
       <c r="K115" s="66"/>
@@ -33094,7 +33096,7 @@
       <c r="G116" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="H116" s="253" t="s">
+      <c r="H116" s="254" t="s">
         <v>384</v>
       </c>
       <c r="I116" s="66"/>
@@ -33132,7 +33134,7 @@
       <c r="G117" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="H117" s="251"/>
+      <c r="H117" s="252"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
       <c r="K117" s="66"/>
@@ -33168,7 +33170,7 @@
       <c r="G118" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="H118" s="251"/>
+      <c r="H118" s="252"/>
       <c r="I118" s="66"/>
       <c r="J118" s="66"/>
       <c r="K118" s="66"/>
@@ -33204,7 +33206,7 @@
       <c r="G119" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="H119" s="254" t="s">
+      <c r="H119" s="255" t="s">
         <v>389</v>
       </c>
       <c r="I119" s="66"/>
@@ -33242,7 +33244,7 @@
       <c r="G120" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="H120" s="251"/>
+      <c r="H120" s="252"/>
       <c r="I120" s="66"/>
       <c r="J120" s="66"/>
       <c r="K120" s="66"/>
@@ -33278,7 +33280,7 @@
       <c r="G121" s="104" t="s">
         <v>393</v>
       </c>
-      <c r="H121" s="251"/>
+      <c r="H121" s="252"/>
       <c r="I121" s="66"/>
       <c r="J121" s="66"/>
       <c r="K121" s="66"/>
